--- a/inspector_master.xlsx
+++ b/inspector_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Git-programming\入荷検査\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB05E68A-DAE6-4F72-9A67-826EE30B2C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC19E02-30FE-401B-A0D4-860C84CE710C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,14 +66,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>幹也</t>
+    <t>里薗</t>
     <rPh sb="0" eb="2">
-      <t>ミキヤ</t>
+      <t>サトゾノ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>nakano.mdsy@gmail.com</t>
+    <t>satozono@mdsy.co.jp</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -457,7 +457,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -491,13 +491,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -508,13 +508,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>

--- a/inspector_master.xlsx
+++ b/inspector_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Git-programming\入荷検査\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC19E02-30FE-401B-A0D4-860C84CE710C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989B179A-4A02-4C8E-BD89-D5D1FA64F265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="-10776" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="検査者一覧" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
